--- a/DATA_goal/Junction_Flooding_229.xlsx
+++ b/DATA_goal/Junction_Flooding_229.xlsx
@@ -451,10 +451,10 @@
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
@@ -471,7 +471,7 @@
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
@@ -655,103 +655,103 @@
         <v>41661.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>17.87</v>
+        <v>1.79</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>11.85</v>
+        <v>1.19</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>38.03</v>
+        <v>3.8</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>30.15</v>
+        <v>3.01</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>14.06</v>
+        <v>1.41</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>43.85</v>
+        <v>4.39</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>21.64</v>
+        <v>2.16</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>8.960000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>13.39</v>
+        <v>1.34</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>14.96</v>
+        <v>1.5</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>15.54</v>
+        <v>1.55</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.49</v>
+        <v>0.45</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>13.99</v>
+        <v>1.4</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>19.46</v>
+        <v>1.95</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>12.06</v>
+        <v>1.21</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.41</v>
+        <v>0.34</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.23</v>
+        <v>0.22</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>205.52</v>
+        <v>20.55</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>38.85</v>
+        <v>3.89</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>12.91</v>
+        <v>1.29</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>25.44</v>
+        <v>2.54</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>12.91</v>
+        <v>1.29</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.12</v>
+        <v>0.31</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>22.37</v>
+        <v>2.24</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>11.4</v>
+        <v>1.14</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>10.38</v>
+        <v>1.04</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>12.2</v>
+        <v>1.22</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>15.49</v>
+        <v>1.55</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.32</v>
+        <v>0.33</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>39.07</v>
+        <v>3.91</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>7.02</v>
+        <v>0.7</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>16.14</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41661.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>11.24</v>
+        <v>1.12</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>7.72</v>
+        <v>0.77</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.64</v>
+        <v>0.16</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>24.27</v>
+        <v>2.43</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>19.27</v>
+        <v>1.93</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>8.85</v>
+        <v>0.88</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>35.26</v>
+        <v>3.53</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>13.61</v>
+        <v>1.36</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.78</v>
+        <v>0.58</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>8.42</v>
+        <v>0.84</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>9.69</v>
+        <v>0.97</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>10.08</v>
+        <v>1.01</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.83</v>
+        <v>0.28</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>8.800000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>12.32</v>
+        <v>1.23</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>7.73</v>
+        <v>0.77</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.49</v>
+        <v>0.15</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.93</v>
+        <v>0.09</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>126.59</v>
+        <v>12.66</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>24.68</v>
+        <v>2.47</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>8.119999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>16.19</v>
+        <v>1.62</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>8.35</v>
+        <v>0.83</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.8</v>
+        <v>0.18</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>17.03</v>
+        <v>1.7</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>7.17</v>
+        <v>0.72</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>6.57</v>
+        <v>0.66</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>7.7</v>
+        <v>0.77</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>10.05</v>
+        <v>1</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.25</v>
+        <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>32.3</v>
+        <v>3.23</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.41</v>
+        <v>0.44</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>10.15</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41661.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>5.67</v>
+        <v>0.57</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.79</v>
+        <v>0.38</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.96</v>
+        <v>0.1</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>12.25</v>
+        <v>1.23</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>9.539999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>4.46</v>
+        <v>0.45</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>20.04</v>
+        <v>2</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>6.86</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.88</v>
+        <v>0.29</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4.08</v>
+        <v>0.41</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>4.91</v>
+        <v>0.49</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>5.08</v>
+        <v>0.51</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.43</v>
+        <v>0.14</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>4.44</v>
+        <v>0.44</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>6.19</v>
+        <v>0.62</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.01</v>
+        <v>0.4</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.95</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AD4" s="4" t="n">
         <v>0.51</v>
       </c>
-      <c r="T4" s="4" t="n">
-        <v>60.22</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>12.55</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>9.34</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>5.07</v>
-      </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>18.44</v>
+        <v>1.84</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.17</v>
+        <v>0.22</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>5.12</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41661.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>7.98</v>
+        <v>0.8</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.65</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.82</v>
+        <v>0.08</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>17.3</v>
+        <v>1.73</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>13.83</v>
+        <v>1.38</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>6.28</v>
+        <v>0.63</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>23.85</v>
+        <v>2.39</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>9.66</v>
+        <v>0.97</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.16</v>
+        <v>0.42</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>6.06</v>
+        <v>0.61</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>6.95</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>7.27</v>
+        <v>0.73</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6.24</v>
+        <v>0.62</v>
       </c>
       <c r="P5" s="4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T5" s="4" t="n">
         <v>8.76</v>
       </c>
-      <c r="Q5" s="4" t="n">
-        <v>5.44</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>87.65000000000001</v>
-      </c>
       <c r="U5" s="4" t="n">
-        <v>17.41</v>
+        <v>1.74</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.76</v>
+        <v>0.58</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>11.49</v>
+        <v>1.15</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>6.01</v>
+        <v>0.6</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.14</v>
+        <v>0.11</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>11.47</v>
+        <v>1.15</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.09</v>
+        <v>0.51</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.62</v>
+        <v>0.46</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.41</v>
+        <v>0.54</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>7.24</v>
+        <v>0.72</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>21.56</v>
+        <v>2.16</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.15</v>
+        <v>0.32</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>7.2</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41661.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>17.87</v>
+        <v>1.79</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>13.15</v>
+        <v>1.32</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>1.03</v>
+        <v>0.1</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>38.85</v>
+        <v>3.89</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>31.72</v>
+        <v>3.17</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>14.06</v>
+        <v>1.41</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>51.71</v>
+        <v>5.17</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>21.64</v>
+        <v>2.16</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>9.59</v>
+        <v>0.96</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>14.18</v>
+        <v>1.42</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>15.59</v>
+        <v>1.56</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>16.44</v>
+        <v>1.64</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>4.49</v>
+        <v>0.45</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>13.99</v>
+        <v>1.4</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>19.88</v>
+        <v>1.99</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>11.81</v>
+        <v>1.18</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.68</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>205.55</v>
+        <v>20.55</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>39.04</v>
+        <v>3.9</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>12.91</v>
+        <v>1.29</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>26.22</v>
+        <v>2.62</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>13.75</v>
+        <v>1.38</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>2.09</v>
+        <v>0.21</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>25.56</v>
+        <v>2.56</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>11.4</v>
+        <v>1.14</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>10.13</v>
+        <v>1.01</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>11.9</v>
+        <v>1.19</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>16.35</v>
+        <v>1.64</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>46.88</v>
+        <v>4.69</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>7.25</v>
+        <v>0.73</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>16.14</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41661.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>22.2</v>
+        <v>2.22</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>16.45</v>
+        <v>1.64</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>48.26</v>
+        <v>4.83</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>39.56</v>
+        <v>3.96</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>17.47</v>
+        <v>1.75</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>67.18000000000001</v>
+        <v>6.72</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>26.88</v>
+        <v>2.69</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>11.97</v>
+        <v>1.2</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>17.74</v>
+        <v>1.77</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>19.37</v>
+        <v>1.94</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>20.45</v>
+        <v>2.04</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>5.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>17.37</v>
+        <v>1.74</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>24.75</v>
+        <v>2.48</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>14.58</v>
+        <v>1.46</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>257.07</v>
+        <v>25.71</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>48.57</v>
+        <v>4.86</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>16.03</v>
+        <v>1.6</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>32.71</v>
+        <v>3.27</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>17.15</v>
+        <v>1.72</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>2.49</v>
+        <v>0.25</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>32.83</v>
+        <v>3.28</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>14.16</v>
+        <v>1.42</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>12.53</v>
+        <v>1.25</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>14.73</v>
+        <v>1.47</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>20.34</v>
+        <v>2.03</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>61.07</v>
+        <v>6.11</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>9.050000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>20.04</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41661.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>14.12</v>
+        <v>1.41</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>10.42</v>
+        <v>1.04</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>30.71</v>
+        <v>3.07</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>25.09</v>
+        <v>2.51</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>11.12</v>
+        <v>1.11</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>45.63</v>
+        <v>4.56</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>17.1</v>
+        <v>1.71</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>7.6</v>
+        <v>0.76</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>11.22</v>
+        <v>1.12</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>12.33</v>
+        <v>1.23</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>13.01</v>
+        <v>1.3</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>3.55</v>
+        <v>0.36</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>11.05</v>
+        <v>1.11</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>15.74</v>
+        <v>1.57</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>9.32</v>
+        <v>0.93</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>160.93</v>
+        <v>16.09</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>30.99</v>
+        <v>3.1</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>10.2</v>
+        <v>1.02</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>20.82</v>
+        <v>2.08</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>10.9</v>
+        <v>1.09</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.64</v>
+        <v>0.16</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>21.81</v>
+        <v>2.18</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>9.01</v>
+        <v>0.9</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>8</v>
+        <v>0.8</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>9.4</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>12.94</v>
+        <v>1.29</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>41.56</v>
+        <v>4.16</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>5.74</v>
+        <v>0.57</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>12.76</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41661.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>14.8</v>
+        <v>1.48</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>10.95</v>
+        <v>1.09</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>32.18</v>
+        <v>3.22</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>26.34</v>
+        <v>2.63</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>11.64</v>
+        <v>1.16</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>45.7</v>
+        <v>4.57</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>17.92</v>
+        <v>1.79</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>7.97</v>
+        <v>0.8</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>11.8</v>
+        <v>1.18</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>12.92</v>
+        <v>1.29</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>13.63</v>
+        <v>1.36</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>3.72</v>
+        <v>0.37</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>11.58</v>
+        <v>1.16</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>16.49</v>
+        <v>1.65</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>9.74</v>
+        <v>0.97</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>168.93</v>
+        <v>16.89</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>32.39</v>
+        <v>3.24</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>10.69</v>
+        <v>1.07</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>21.79</v>
+        <v>2.18</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>11.43</v>
+        <v>1.14</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.68</v>
+        <v>0.17</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>22.09</v>
+        <v>2.21</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>9.44</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>8.359999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>9.83</v>
+        <v>0.98</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>13.56</v>
+        <v>1.36</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>41.48</v>
+        <v>4.15</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>6.02</v>
+        <v>0.6</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>13.36</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41661.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>11.05</v>
+        <v>1.1</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>8.15</v>
+        <v>0.82</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>24.03</v>
+        <v>2.4</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>19.62</v>
+        <v>1.96</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>8.699999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>35.39</v>
+        <v>3.54</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>13.38</v>
+        <v>1.34</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>5.95</v>
+        <v>0.59</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>8.779999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>9.65</v>
+        <v>0.96</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>10.18</v>
+        <v>1.02</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>2.78</v>
+        <v>0.28</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>8.65</v>
+        <v>0.86</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>12.32</v>
+        <v>1.23</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>7.3</v>
+        <v>0.73</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>124.3</v>
+        <v>12.43</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>24.24</v>
+        <v>2.42</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>7.98</v>
+        <v>0.8</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>16.29</v>
+        <v>1.63</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>8.529999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.28</v>
+        <v>0.13</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>16.96</v>
+        <v>1.7</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>7.05</v>
+        <v>0.71</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>6.26</v>
+        <v>0.63</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>7.35</v>
+        <v>0.74</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>10.13</v>
+        <v>1.01</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>32.22</v>
+        <v>3.22</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>4.49</v>
+        <v>0.45</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>9.98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_229.xlsx
+++ b/DATA_goal/Junction_Flooding_229.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,30 +451,30 @@
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
+    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41661.34027777778</v>
+        <v>44910.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.79</v>
+        <v>2.45</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.19</v>
+        <v>1.71</v>
       </c>
       <c r="D2" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R2" s="4" t="n">
         <v>0.4</v>
       </c>
-      <c r="E2" s="4" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="O2" s="4" t="n">
+      <c r="S2" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>28.45</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AB2" s="4" t="n">
         <v>1.4</v>
       </c>
-      <c r="P2" s="4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>20.55</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>1.04</v>
-      </c>
       <c r="AC2" s="4" t="n">
-        <v>1.22</v>
+        <v>1.63</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.55</v>
+        <v>2.11</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.91</v>
+        <v>5.73</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.7</v>
+        <v>0.99</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.61</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41661.34722222222</v>
+        <v>44910.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.12</v>
+        <v>1.78</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.77</v>
+        <v>1.27</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.43</v>
+        <v>3.81</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.93</v>
+        <v>3.15</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.88</v>
+        <v>1.4</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.53</v>
+        <v>5.56</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.36</v>
+        <v>2.15</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.58</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.84</v>
+        <v>1.42</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.97</v>
+        <v>1.51</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.28</v>
+        <v>0.45</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.88</v>
+        <v>1.39</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.23</v>
+        <v>1.97</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.77</v>
+        <v>1.18</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>12.66</v>
+        <v>20.44</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.47</v>
+        <v>3.9</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.28</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.62</v>
+        <v>2.6</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.83</v>
+        <v>1.38</v>
       </c>
       <c r="Y3" s="4" t="n">
         <v>0.18</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.7</v>
+        <v>2.64</v>
       </c>
       <c r="AA3" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AE3" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AF3" s="4" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="AG3" s="4" t="n">
         <v>0.72</v>
       </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AF3" s="4" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="AG3" s="4" t="n">
-        <v>0.44</v>
-      </c>
       <c r="AH3" s="4" t="n">
-        <v>1.02</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41661.35416666666</v>
+        <v>44910.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.57</v>
+        <v>0.04</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.38</v>
+        <v>0.02</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.23</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.95</v>
+        <v>0.03</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.06</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.41</v>
+        <v>0.02</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.49</v>
+        <v>0.01</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.62</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.4</v>
+        <v>0.05</v>
       </c>
       <c r="R4" s="4" t="n">
         <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>6.02</v>
+        <v>0</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.25</v>
+        <v>0.17</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.41</v>
+        <v>0.03</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.42</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.93</v>
+        <v>0.39</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.36</v>
+        <v>0.03</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.34</v>
+        <v>0.04</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.51</v>
+        <v>0.02</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.84</v>
+        <v>0.95</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.22</v>
+        <v>0.01</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41661.36111111111</v>
+        <v>44910.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.8</v>
+        <v>0.04</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E5" s="4" t="n">
         <v>0.08</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>1.73</v>
-      </c>
       <c r="F5" s="4" t="n">
-        <v>1.38</v>
+        <v>0.03</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.39</v>
+        <v>0.42</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.97</v>
+        <v>0.06</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.42</v>
+        <v>0.01</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.61</v>
+        <v>0.03</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.62</v>
+        <v>0.04</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.88</v>
+        <v>0.05</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="X5" s="4" t="n">
         <v>0.05</v>
       </c>
-      <c r="T5" s="4" t="n">
-        <v>8.76</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.6</v>
-      </c>
       <c r="Y5" s="4" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.15</v>
+        <v>0.15</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.51</v>
+        <v>0.03</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.46</v>
+        <v>0.04</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.04</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.72</v>
+        <v>0.03</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.16</v>
+        <v>0.4</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.32</v>
+        <v>0.01</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.72</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41661.36805555555</v>
+        <v>44910.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.79</v>
+        <v>24.43</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.32</v>
+        <v>18.28</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.1</v>
+        <v>1.26</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>3.89</v>
+        <v>53.06</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>3.17</v>
+        <v>43.69</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.41</v>
+        <v>19.52</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>5.17</v>
+        <v>67.37</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>2.16</v>
+        <v>29.67</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.96</v>
+        <v>13.19</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.42</v>
+        <v>19.8</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.56</v>
+        <v>21.16</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.64</v>
+        <v>22.34</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.45</v>
+        <v>6.09</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1.4</v>
+        <v>19.17</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>1.99</v>
+        <v>27.3</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>1.18</v>
+        <v>16.07</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>20.55</v>
+        <v>284.99</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>3.9</v>
+        <v>53.46</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>1.29</v>
+        <v>17.7</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>2.62</v>
+        <v>36.03</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.38</v>
+        <v>19.11</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.21</v>
+        <v>2.5</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>2.56</v>
+        <v>33.84</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>1.14</v>
+        <v>15.63</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>1.01</v>
+        <v>13.8</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>1.19</v>
+        <v>16.23</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.64</v>
+        <v>22.38</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>4.69</v>
+        <v>60.9</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.73</v>
+        <v>10.01</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.61</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41661.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>4.83</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>25.71</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41661.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>16.09</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.28</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41661.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>16.89</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.34</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41661.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>12.43</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41661.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>17.78</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>13.22</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>38.66</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>31.74</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>13.99</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>53.02</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>21.52</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>14.26</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>15.52</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>13.91</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>19.84</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>204.41</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>38.87</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>12.84</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>26.21</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>25.96</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>48.08</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>16.05</v>
+        <v>22.13</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_229.xlsx
+++ b/DATA_goal/Junction_Flooding_229.xlsx
@@ -452,28 +452,28 @@
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
@@ -655,103 +655,103 @@
         <v>44910.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.45</v>
+        <v>24.5</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.71</v>
+        <v>17.07</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.27</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>5.18</v>
+        <v>51.77</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>4.28</v>
+        <v>42.83</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.93</v>
+        <v>19.28</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>6.46</v>
+        <v>64.65000000000001</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.97</v>
+        <v>29.67</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.27</v>
+        <v>12.71</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.96</v>
+        <v>19.6</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.01</v>
+        <v>20.15</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>2.14</v>
+        <v>21.39</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.16</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.92</v>
+        <v>19.17</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.71</v>
+        <v>27.06</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.59</v>
+        <v>15.86</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.4</v>
+        <v>3.99</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.26</v>
+        <v>2.61</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>28.45</v>
+        <v>284.51</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>5.34</v>
+        <v>53.42</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.77</v>
+        <v>17.7</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.56</v>
+        <v>35.64</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.85</v>
+        <v>18.49</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>3.2</v>
+        <v>31.96</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.56</v>
+        <v>15.63</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.4</v>
+        <v>13.96</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.63</v>
+        <v>16.32</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>2.11</v>
+        <v>21.12</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.73</v>
+        <v>57.29</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.99</v>
+        <v>9.94</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.21</v>
+        <v>22.13</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44910.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.78</v>
+        <v>17.78</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.27</v>
+        <v>12.69</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.86</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.81</v>
+        <v>38.07</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.15</v>
+        <v>31.54</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.4</v>
+        <v>13.99</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>5.56</v>
+        <v>55.56</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.15</v>
+        <v>21.52</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.42</v>
+        <v>14.23</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.51</v>
+        <v>15.08</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.6</v>
+        <v>15.98</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.45</v>
+        <v>4.47</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.39</v>
+        <v>13.91</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.97</v>
+        <v>19.69</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.18</v>
+        <v>11.77</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.67</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.1</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>20.44</v>
+        <v>204.42</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.9</v>
+        <v>38.96</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.28</v>
+        <v>12.84</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.6</v>
+        <v>26</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.38</v>
+        <v>13.81</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.81</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.64</v>
+        <v>26.44</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.13</v>
+        <v>11.34</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.02</v>
+        <v>10.2</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.19</v>
+        <v>11.94</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.59</v>
+        <v>15.86</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.29</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>5.02</v>
+        <v>50.23</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.72</v>
+        <v>7.2</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.61</v>
+        <v>16.05</v>
       </c>
     </row>
     <row r="4">
@@ -863,37 +863,37 @@
         <v>44910.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.39</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.79</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.34</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.58</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="M4" s="4" t="n">
         <v>0</v>
@@ -902,64 +902,64 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.55</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="T4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.17</v>
+        <v>1.74</v>
       </c>
       <c r="V4" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="Y4" s="4" t="n">
         <v>0.03</v>
       </c>
-      <c r="W4" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="Z4" s="4" t="n">
-        <v>0.39</v>
+        <v>3.93</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.31</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.41</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0.95</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="5">
@@ -967,37 +967,37 @@
         <v>44910.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.4</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.75</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.32</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>0.42</v>
+        <v>4.24</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.58</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.26</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="M5" s="4" t="n">
         <v>0</v>
@@ -1006,64 +1006,64 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.45</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="T5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
       </c>
       <c r="V5" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="Y5" s="4" t="n">
         <v>0.03</v>
       </c>
-      <c r="W5" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="Z5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.53</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.31</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.37</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.41</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_229.xlsx
+++ b/DATA_goal/Junction_Flooding_229.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44910.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>24.5</v>
+        <v>24.502</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>17.07</v>
+        <v>17.071</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.27</v>
+        <v>4.266</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>51.77</v>
+        <v>51.765</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>42.83</v>
+        <v>42.826</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>19.28</v>
+        <v>19.282</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>64.65000000000001</v>
+        <v>64.646</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>29.67</v>
+        <v>29.668</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>12.71</v>
+        <v>12.708</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>19.6</v>
+        <v>19.604</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>20.15</v>
+        <v>20.148</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>21.39</v>
+        <v>21.386</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>6.16</v>
+        <v>6.157</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>19.17</v>
+        <v>19.174</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>27.06</v>
+        <v>27.062</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>15.86</v>
+        <v>15.864</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.99</v>
+        <v>3.991</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.61</v>
+        <v>2.607</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>284.51</v>
+        <v>284.514</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>53.42</v>
+        <v>53.424</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>17.7</v>
+        <v>17.698</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>35.64</v>
+        <v>35.645</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>18.49</v>
+        <v>18.491</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.5</v>
+        <v>2.496</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>31.96</v>
+        <v>31.956</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>15.63</v>
+        <v>15.633</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>13.96</v>
+        <v>13.958</v>
       </c>
       <c r="AC2" s="4" t="n">
         <v>16.32</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>21.12</v>
+        <v>21.117</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>3.641</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>57.29</v>
+        <v>57.291</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>9.94</v>
+        <v>9.936999999999999</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>22.13</v>
+        <v>22.127</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44910.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>17.78</v>
+        <v>17.776</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>12.69</v>
+        <v>12.688</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>1.86</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>38.07</v>
+        <v>38.072</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>31.54</v>
+        <v>31.537</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>13.99</v>
+        <v>13.989</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>55.56</v>
+        <v>55.564</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>21.52</v>
+        <v>21.524</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>9.366</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>14.23</v>
+        <v>14.234</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>15.08</v>
+        <v>15.082</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>15.98</v>
+        <v>15.982</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.47</v>
+        <v>4.469</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>13.91</v>
+        <v>13.911</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>19.69</v>
+        <v>19.692</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>11.77</v>
+        <v>11.768</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.67</v>
+        <v>1.673</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.1</v>
+        <v>1.102</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>204.42</v>
+        <v>204.424</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>38.96</v>
+        <v>38.955</v>
       </c>
       <c r="V3" s="4" t="n">
         <v>12.84</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>26</v>
+        <v>25.996</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>13.81</v>
+        <v>13.806</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.81</v>
+        <v>1.806</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>26.44</v>
+        <v>26.444</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>11.34</v>
+        <v>11.342</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>10.2</v>
+        <v>10.195</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>11.94</v>
+        <v>11.941</v>
       </c>
       <c r="AD3" s="4" t="n">
         <v>15.86</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.29</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>50.23</v>
+        <v>50.234</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7.2</v>
+        <v>7.196</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>16.05</v>
+        <v>16.053</v>
       </c>
     </row>
     <row r="4">
@@ -866,13 +866,13 @@
         <v>0.39</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.16</v>
+        <v>0.158</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.79</v>
+        <v>0.788</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.66</v>
+        <v>0.656</v>
       </c>
       <c r="F4" s="4" t="n">
         <v>0.34</v>
@@ -881,19 +881,19 @@
         <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>9.960000000000001</v>
+        <v>9.962999999999999</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.58</v>
+        <v>0.582</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.29</v>
+        <v>0.289</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.23</v>
+        <v>0.232</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.095</v>
       </c>
       <c r="M4" s="4" t="n">
         <v>0</v>
@@ -902,64 +902,64 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.38</v>
+        <v>0.376</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.68</v>
+        <v>0.675</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.55</v>
+        <v>0.548</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.96</v>
+        <v>0.964</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.29</v>
+        <v>0.294</v>
       </c>
       <c r="T4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.74</v>
+        <v>1.735</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.35</v>
+        <v>0.347</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.19</v>
+        <v>1.187</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.66</v>
+        <v>0.664</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.032</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.93</v>
+        <v>3.932</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.31</v>
+        <v>0.307</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.41</v>
+        <v>0.408</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.42</v>
+        <v>0.418</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.2</v>
+        <v>0.201</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.783</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>9.529999999999999</v>
+        <v>9.532999999999999</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.091</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.46</v>
+        <v>0.463</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>0.43</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44910.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>24.43</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>18.28</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>53.06</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>43.69</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>19.52</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>67.37</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>29.67</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>13.19</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>21.16</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>22.34</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>19.17</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>16.07</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>284.99</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>53.46</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>36.03</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>19.11</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>33.84</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>16.23</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>22.38</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>60.9</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>22.13</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_229.xlsx
+++ b/DATA_goal/Junction_Flooding_229.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,37 +967,37 @@
         <v>44910.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.4</v>
+        <v>0.401</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>0.2</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.57</v>
+        <v>0.573</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.75</v>
+        <v>0.751</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.32</v>
+        <v>0.325</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.24</v>
+        <v>4.241</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.58</v>
+        <v>0.582</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.13</v>
+        <v>0.131</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.26</v>
+        <v>0.262</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.14</v>
+        <v>0.143</v>
       </c>
       <c r="M5" s="4" t="n">
         <v>0</v>
@@ -1006,64 +1006,168 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.38</v>
+        <v>0.376</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>0.45</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.521</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.71</v>
+        <v>0.709</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.19</v>
+        <v>0.193</v>
       </c>
       <c r="T5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.2</v>
+        <v>1.197</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.35</v>
+        <v>0.347</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.59</v>
+        <v>0.594</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.46</v>
+        <v>0.459</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.033</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.53</v>
+        <v>1.528</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.31</v>
+        <v>0.307</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.37</v>
+        <v>0.373</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.41</v>
+        <v>0.411</v>
       </c>
       <c r="AD5" s="4" t="n">
         <v>0.29</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4</v>
+        <v>3.999</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.11</v>
+        <v>0.106</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.43</v>
+        <v>0.435</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44910.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>24.43</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>18.28</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>53.06</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>43.69</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>19.52</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>67.37</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>29.67</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>13.19</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>21.16</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>22.34</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>19.17</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>16.07</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>284.99</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>53.46</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>36.03</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>19.11</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>33.84</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>16.23</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>22.38</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>22.13</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_229.xlsx
+++ b/DATA_goal/Junction_Flooding_229.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,37 +967,37 @@
         <v>44910.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.401</v>
+        <v>0.4</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>0.2</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.573</v>
+        <v>0.57</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.751</v>
+        <v>0.75</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.325</v>
+        <v>0.32</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.241</v>
+        <v>4.24</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.582</v>
+        <v>0.58</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.131</v>
+        <v>0.13</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.262</v>
+        <v>0.26</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.143</v>
+        <v>0.14</v>
       </c>
       <c r="M5" s="4" t="n">
         <v>0</v>
@@ -1006,168 +1006,64 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.376</v>
+        <v>0.38</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>0.45</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.521</v>
+        <v>0.52</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.709</v>
+        <v>0.71</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.193</v>
+        <v>0.19</v>
       </c>
       <c r="T5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.197</v>
+        <v>1.2</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.347</v>
+        <v>0.35</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.594</v>
+        <v>0.59</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.459</v>
+        <v>0.46</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.033</v>
+        <v>0.03</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.528</v>
+        <v>1.53</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.307</v>
+        <v>0.31</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.373</v>
+        <v>0.37</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.411</v>
+        <v>0.41</v>
       </c>
       <c r="AD5" s="4" t="n">
         <v>0.29</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.999</v>
+        <v>4</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.106</v>
+        <v>0.11</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.435</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44910.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>24.43</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>18.28</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>53.06</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>43.69</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>19.52</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>67.37</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>29.67</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>13.19</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>21.16</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>22.34</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>19.17</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>16.07</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>284.99</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>53.46</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>36.03</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>19.11</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>33.84</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>16.23</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>22.38</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>60.9</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>22.13</v>
+        <v>0.43</v>
       </c>
     </row>
   </sheetData>
